--- a/Toa do - Copy.xlsx
+++ b/Toa do - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kp7p8-my.sharepoint.com/personal/giuseduong2310_6kp7p8_onmicrosoft_com/Documents/TOOL/Map for services in Ho Chi Minh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{F94EB4B8-D649-4B56-AA00-A990B5365F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAF9E2B-9DE2-429F-9AB0-8036CAFBC49D}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{F94EB4B8-D649-4B56-AA00-A990B5365F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0987CFE1-1233-4458-A066-BF607337A681}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="193">
   <si>
     <t>STT</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>Cơ sở 1: 19 Phạm Ngọc Thạch, Phường Phước Hưng, Tp. Bà Rịa, tỉnh Bà Rịa - Vũng Tàu</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Cơ sở 2: Khu Gò Cát 8, Ấp Bắc, xã Hòa Long, Tp. Bà Rịa, Tỉnh Bà Rịa - Vũng Tàu</t>
@@ -1139,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1172,7 @@
         <v>86</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>88</v>
@@ -1184,10 +1181,10 @@
         <v>89</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>192</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -1240,7 +1237,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>88</v>
@@ -1275,7 +1272,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>88</v>
@@ -1308,7 +1305,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>88</v>
@@ -1343,7 +1340,7 @@
         <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>88</v>
@@ -1378,7 +1375,7 @@
         <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1409,7 +1406,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>88</v>
@@ -1444,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>88</v>
@@ -1479,7 +1476,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>88</v>
@@ -1514,7 +1511,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>88</v>
@@ -1549,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>88</v>
@@ -1584,7 +1581,7 @@
         <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>88</v>
@@ -1619,7 +1616,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>88</v>
@@ -1654,7 +1651,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>88</v>
@@ -1689,7 +1686,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>88</v>
@@ -1724,7 +1721,7 @@
         <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>88</v>
@@ -1759,7 +1756,7 @@
         <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>88</v>
@@ -1794,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>88</v>
@@ -1827,7 +1824,7 @@
         <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>88</v>
@@ -1862,7 +1859,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>88</v>
@@ -1897,7 +1894,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>88</v>
@@ -1932,7 +1929,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>88</v>
@@ -1967,7 +1964,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
@@ -2000,7 +1997,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>88</v>
@@ -2066,7 +2063,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
@@ -2099,7 +2096,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
@@ -2331,7 +2328,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
@@ -2362,7 +2359,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2393,7 +2390,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
@@ -2453,7 +2450,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2482,7 +2479,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3270,15 +3267,9 @@
       <c r="D69" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="30" t="s">
         <v>89</v>
       </c>
@@ -3301,20 +3292,14 @@
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="F70" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H70" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="H70" s="30"/>
       <c r="I70">
         <v>10.5102464</v>
       </c>
@@ -3330,23 +3315,19 @@
         <v>72</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
       <c r="H71" s="30" t="s">
         <v>89</v>
       </c>
@@ -3365,23 +3346,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72">
         <v>10.3924834</v>
@@ -3398,19 +3375,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>88</v>
@@ -3433,19 +3410,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>88</v>
@@ -3468,26 +3445,24 @@
         <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="38" t="s">
         <v>86</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="H75" s="30"/>
       <c r="I75" s="1">
         <v>10.59721</v>
       </c>
@@ -3503,26 +3478,22 @@
         <v>72</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="F76" s="30"/>
       <c r="G76" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H76" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="H76" s="30"/>
       <c r="I76" s="1">
         <v>10.5385177</v>
       </c>
@@ -3538,26 +3509,20 @@
         <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>171</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
       <c r="G77" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H77" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="H77" s="30"/>
       <c r="I77" s="1">
         <v>10.646776300000001</v>
       </c>
@@ -3573,26 +3538,20 @@
         <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F78" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="1">
         <v>8.6884721000000003</v>
       </c>
@@ -3608,26 +3567,20 @@
         <v>72</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F79" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="1">
         <v>10.697192599999999</v>
       </c>
